--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/67.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/67.xlsx
@@ -479,13 +479,13 @@
         <v>0.05605809651925739</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.936354243477465</v>
+        <v>-1.936471047324738</v>
       </c>
       <c r="F2" t="n">
-        <v>0.391695357572637</v>
+        <v>0.390255750155001</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2310560345464685</v>
+        <v>-0.2286162941865601</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.0724387583020546</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.949602719854371</v>
+        <v>-1.949921740362234</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3099282843374771</v>
+        <v>0.3090157542806591</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2109175912285648</v>
+        <v>-0.2089611267867472</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.07022600192483081</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.021916711724942</v>
+        <v>-2.025232480939396</v>
       </c>
       <c r="F4" t="n">
-        <v>0.281080654157303</v>
+        <v>0.2772378075820313</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2280687761524693</v>
+        <v>-0.2253049051163792</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.04233226142306681</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.08291241079479</v>
+        <v>-2.084446191314289</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2579870735034002</v>
+        <v>0.2534404837483105</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2340447529885586</v>
+        <v>-0.2286907566391964</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.0109817134328664</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.04804646238389</v>
+        <v>-2.047498214325754</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2432070066791314</v>
+        <v>0.2362790784877696</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.221869411958471</v>
+        <v>-0.2163810911847452</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.08188411541092333</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.910428169527199</v>
+        <v>-1.906849591656382</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2626329465286716</v>
+        <v>0.2570030010901277</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2090969112592017</v>
+        <v>-0.2042699922706576</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1553178131402501</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.638742420770909</v>
+        <v>-1.634328695392092</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2631994451879442</v>
+        <v>0.2598544750116724</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1870954465772985</v>
+        <v>-0.1853492290605717</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2164563482467528</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.262817998612282</v>
+        <v>-1.261284948116828</v>
       </c>
       <c r="F9" t="n">
-        <v>0.246379691180676</v>
+        <v>0.2406913438184957</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.130541943824041</v>
+        <v>-0.130558004353041</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2545797312617641</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7783725820006853</v>
+        <v>-0.7796953855710484</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2712735111306693</v>
+        <v>0.2688848724539427</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.03013443661224977</v>
+        <v>-0.03103236618815862</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2635928223619295</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2459602054584645</v>
+        <v>-0.2517857973411903</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1605215631947899</v>
+        <v>0.153132259806701</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05765095485363575</v>
+        <v>0.05585217560563623</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2398142739841381</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4251728002490825</v>
+        <v>0.4215226800218108</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03838854039027729</v>
+        <v>0.02946618650673423</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1555413391567004</v>
+        <v>0.1530490370655192</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1811723143933144</v>
       </c>
       <c r="E13" t="n">
-        <v>1.106150910233627</v>
+        <v>1.097343900149266</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1251660467533152</v>
+        <v>-0.1342928073695854</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2892656837549372</v>
+        <v>0.2887240059132101</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.08696903024647144</v>
       </c>
       <c r="E14" t="n">
-        <v>1.824604074567525</v>
+        <v>1.817373916421345</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3533540427852539</v>
+        <v>-0.3681545502827954</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4348047375048072</v>
+        <v>0.4329971979682622</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.04240206560714433</v>
       </c>
       <c r="E15" t="n">
-        <v>2.530693551667608</v>
+        <v>2.523913088333428</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6242411452358175</v>
+        <v>-0.6407615893844495</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6234809121005748</v>
+        <v>0.6237627013821201</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2043975904359743</v>
       </c>
       <c r="E16" t="n">
-        <v>3.204697011921882</v>
+        <v>3.19910210763752</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.9404101791778235</v>
+        <v>-0.9541506917613652</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7798520626368963</v>
+        <v>0.7808784764448052</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3964771571521396</v>
       </c>
       <c r="E17" t="n">
-        <v>3.86366927708025</v>
+        <v>3.856986636968161</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.203109331934571</v>
+        <v>-1.221393514177021</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9781192931418431</v>
+        <v>0.9803882078751153</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.6130755742567342</v>
       </c>
       <c r="E18" t="n">
-        <v>4.402894238014651</v>
+        <v>4.39444201961638</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.560908717092657</v>
+        <v>-1.575291650836198</v>
       </c>
       <c r="G18" t="n">
-        <v>1.177513680772971</v>
+        <v>1.179674551947516</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8461459524414394</v>
       </c>
       <c r="E19" t="n">
-        <v>4.931317763172509</v>
+        <v>4.919673879647512</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.847409573827398</v>
+        <v>-1.864499436731484</v>
       </c>
       <c r="G19" t="n">
-        <v>1.377721315190736</v>
+        <v>1.382707379421189</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.085275862284849</v>
       </c>
       <c r="E20" t="n">
-        <v>5.294144093907593</v>
+        <v>5.282409687400961</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.167797416728085</v>
+        <v>-2.184772665857035</v>
       </c>
       <c r="G20" t="n">
-        <v>1.586573894354771</v>
+        <v>1.591786266039315</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.31765888953548</v>
       </c>
       <c r="E21" t="n">
-        <v>5.603169112540783</v>
+        <v>5.589552704044968</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.486137542181272</v>
+        <v>-2.502728798662313</v>
       </c>
       <c r="G21" t="n">
-        <v>1.768192196479085</v>
+        <v>1.774374040095993</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.529086293542796</v>
       </c>
       <c r="E22" t="n">
-        <v>5.842917769356537</v>
+        <v>5.834639296681084</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.796539386164189</v>
+        <v>-2.814056313134866</v>
       </c>
       <c r="G22" t="n">
-        <v>1.895045554761506</v>
+        <v>1.900186384089596</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.703195657758848</v>
       </c>
       <c r="E23" t="n">
-        <v>5.99729887434495</v>
+        <v>5.989934391774407</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.046485748870894</v>
+        <v>-3.06117310264139</v>
       </c>
       <c r="G23" t="n">
-        <v>2.014862941293837</v>
+        <v>2.019650438983927</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.827342760672127</v>
       </c>
       <c r="E24" t="n">
-        <v>6.086805662510017</v>
+        <v>6.078112536176747</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.279838665024422</v>
+        <v>-3.293586477848419</v>
       </c>
       <c r="G24" t="n">
-        <v>2.117765670692992</v>
+        <v>2.124259964601353</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.896493703953748</v>
       </c>
       <c r="E25" t="n">
-        <v>6.102520160112467</v>
+        <v>6.096176251157469</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.455583923703057</v>
+        <v>-3.470261787160962</v>
       </c>
       <c r="G25" t="n">
-        <v>2.171307094234705</v>
+        <v>2.173406643389431</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.914240212779944</v>
       </c>
       <c r="E26" t="n">
-        <v>6.049269286140845</v>
+        <v>6.041696016693302</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.622636056048421</v>
+        <v>-3.636624776807418</v>
       </c>
       <c r="G26" t="n">
-        <v>2.197637601506152</v>
+        <v>2.195574553553698</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.886508512999606</v>
       </c>
       <c r="E27" t="n">
-        <v>5.945100695046873</v>
+        <v>5.934008709700239</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.712938570423034</v>
+        <v>-3.729826946690574</v>
       </c>
       <c r="G27" t="n">
-        <v>2.201919922556787</v>
+        <v>2.204261839694605</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.820216896243131</v>
       </c>
       <c r="E28" t="n">
-        <v>5.872064709395347</v>
+        <v>5.85918270508926</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.778766298649743</v>
+        <v>-3.795299883231193</v>
       </c>
       <c r="G28" t="n">
-        <v>2.208405456176604</v>
+        <v>2.209361787676149</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.72341339254815</v>
       </c>
       <c r="E29" t="n">
-        <v>5.674363977549673</v>
+        <v>5.660791370496586</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.81857596989646</v>
+        <v>-3.835684813425728</v>
       </c>
       <c r="G29" t="n">
-        <v>2.20856022127424</v>
+        <v>2.209319446281512</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.604794664051952</v>
       </c>
       <c r="E30" t="n">
-        <v>5.462978214947912</v>
+        <v>5.447980600958098</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.849138426559406</v>
+        <v>-3.869145465549128</v>
       </c>
       <c r="G30" t="n">
-        <v>2.162919117952434</v>
+        <v>2.165218693695615</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.474025316704686</v>
       </c>
       <c r="E31" t="n">
-        <v>5.183130797363441</v>
+        <v>5.163138358854629</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.744492399739707</v>
+        <v>-3.760911370546021</v>
       </c>
       <c r="G31" t="n">
-        <v>2.081331630632456</v>
+        <v>2.083708588924456</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.340484614427462</v>
       </c>
       <c r="E32" t="n">
-        <v>4.878001187036796</v>
+        <v>4.857981007614256</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.663721079302547</v>
+        <v>-3.683550722449223</v>
       </c>
       <c r="G32" t="n">
-        <v>1.935264039473677</v>
+        <v>1.937674578871767</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.211753682468826</v>
       </c>
       <c r="E33" t="n">
-        <v>4.596411932079872</v>
+        <v>4.57492732442215</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.524923067588402</v>
+        <v>-3.541743551619716</v>
       </c>
       <c r="G33" t="n">
-        <v>1.842805034068793</v>
+        <v>1.84556452496061</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.092743428620606</v>
       </c>
       <c r="E34" t="n">
-        <v>4.264103526540961</v>
+        <v>4.242852526577785</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.40837399870757</v>
+        <v>-3.420490207789976</v>
       </c>
       <c r="G34" t="n">
-        <v>1.714955922988373</v>
+        <v>1.713776204130918</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9857929552888574</v>
       </c>
       <c r="E35" t="n">
-        <v>3.922808525002507</v>
+        <v>3.90353297010633</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.29008528252642</v>
+        <v>-3.30486023918237</v>
       </c>
       <c r="G35" t="n">
-        <v>1.604125132455584</v>
+        <v>1.604574827267584</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.8910142580291641</v>
       </c>
       <c r="E36" t="n">
-        <v>3.589736514312051</v>
+        <v>3.572598469820965</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.165710355878317</v>
+        <v>-3.181839507138585</v>
       </c>
       <c r="G36" t="n">
-        <v>1.455987193103897</v>
+        <v>1.452818888746625</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.8090894133814945</v>
       </c>
       <c r="E37" t="n">
-        <v>3.235991682702419</v>
+        <v>3.214876467211697</v>
       </c>
       <c r="F37" t="n">
-        <v>-3.02238546505831</v>
+        <v>-3.036501940025261</v>
       </c>
       <c r="G37" t="n">
-        <v>1.325536276325477</v>
+        <v>1.321981059224114</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7381471243210376</v>
       </c>
       <c r="E38" t="n">
-        <v>2.87842882533506</v>
+        <v>2.858449527259066</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.964485067941189</v>
+        <v>-2.974228698875868</v>
       </c>
       <c r="G38" t="n">
-        <v>1.17987311848788</v>
+        <v>1.177506380532517</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6754887048442063</v>
       </c>
       <c r="E39" t="n">
-        <v>2.533004807795517</v>
+        <v>2.511966974853613</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.825754218439226</v>
+        <v>-2.834741544462815</v>
       </c>
       <c r="G39" t="n">
-        <v>1.079471451468452</v>
+        <v>1.077545648036544</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.617838783880069</v>
       </c>
       <c r="E40" t="n">
-        <v>2.215981645720329</v>
+        <v>2.195776040190244</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.707348698410804</v>
+        <v>-2.713237072361439</v>
       </c>
       <c r="G40" t="n">
-        <v>0.958947401660121</v>
+        <v>0.9560608865843945</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5627808089746427</v>
       </c>
       <c r="E41" t="n">
-        <v>1.882636606036873</v>
+        <v>1.862990198925605</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.578314758304611</v>
+        <v>-2.583832280040155</v>
       </c>
       <c r="G41" t="n">
-        <v>0.83710638847379</v>
+        <v>0.8347600911916998</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5084490922619254</v>
       </c>
       <c r="E42" t="n">
-        <v>1.549885805926417</v>
+        <v>1.530490527086786</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.515422456764673</v>
+        <v>-2.52155465874649</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7210369453908213</v>
+        <v>0.7186891880606401</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4531639417322939</v>
       </c>
       <c r="E43" t="n">
-        <v>1.285333852142306</v>
+        <v>1.268134485631402</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.435572426672877</v>
+        <v>-2.440969494440921</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6565451611672931</v>
+        <v>0.6528819005072032</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.3962944323591513</v>
       </c>
       <c r="E44" t="n">
-        <v>1.018663368578287</v>
+        <v>1.003985505120382</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.319096360196589</v>
+        <v>-2.322161001139407</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5490330599451402</v>
+        <v>0.545853075203141</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3375651880212802</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8016491205860723</v>
+        <v>0.7906578785577116</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.274411588374329</v>
+        <v>-2.27826100516601</v>
       </c>
       <c r="G45" t="n">
-        <v>0.442036355699078</v>
+        <v>0.4376795721958064</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2785250981578207</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5672953414662262</v>
+        <v>0.5580576171950469</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.183258595986763</v>
+        <v>-2.18440400371408</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3777752590739134</v>
+        <v>0.3773941865221863</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.2205737304255545</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3686747793232795</v>
+        <v>0.3603247642913727</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.096014882362604</v>
+        <v>-2.101211923542194</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2963308564668444</v>
+        <v>0.294530617170754</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.1652957418452287</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2513438546897656</v>
+        <v>0.2457066090107671</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.990225637887723</v>
+        <v>-1.995021895866359</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2082782762003226</v>
+        <v>0.2091820459685951</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1143060101807226</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1214871774843459</v>
+        <v>0.1154016970414384</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.893547093500113</v>
+        <v>-1.898383502801248</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1546317291960642</v>
+        <v>0.1540331094787917</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.06873053829299115</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01616076825428326</v>
+        <v>0.009175898187376042</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.810006791858545</v>
+        <v>-1.816825946467134</v>
       </c>
       <c r="G50" t="n">
-        <v>0.08935443909962724</v>
+        <v>0.0899691193458998</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.02933227714026528</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.07522656185187403</v>
+        <v>-0.08223333264014487</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.680705662951716</v>
+        <v>-1.686570676132896</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03296008158827875</v>
+        <v>0.03450919261273287</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.0037541469926415</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.183778217314754</v>
+        <v>-0.1926421692746607</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.56173364426402</v>
+        <v>-1.5689638024102</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.007052536343074146</v>
+        <v>-0.007510991443619478</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.03097958514466314</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.306544900990721</v>
+        <v>-0.3189640700519904</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.447258573696324</v>
+        <v>-1.452669511921231</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.07549083055632849</v>
+        <v>-0.07687787624269177</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.05329397468165749</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.3395930895284394</v>
+        <v>-0.3450799502540743</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.374970132667343</v>
+        <v>-1.379956196897796</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.1399037721829476</v>
+        <v>-0.1412601568594017</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.07153395904997079</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.4697286359192226</v>
+        <v>-0.4787298323996748</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.332114801102991</v>
+        <v>-1.336532906626081</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1527492752867623</v>
+        <v>-0.1573849279753974</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.08726253020612461</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.5530331397941094</v>
+        <v>-0.564392313941379</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.241088102875288</v>
+        <v>-1.241818126920743</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2005658502640222</v>
+        <v>-0.2033443217810214</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1017965281060496</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.6561446560702635</v>
+        <v>-0.6704020256779869</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.200741133931117</v>
+        <v>-1.20150035893839</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.2329774578341044</v>
+        <v>-0.2372553987404669</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1160578794439041</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.6801317861558025</v>
+        <v>-0.6943760153307078</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.158109189724674</v>
+        <v>-1.156580519373493</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.2679120285052768</v>
+        <v>-0.272819250138821</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1305106984359958</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.7722914817020505</v>
+        <v>-0.7834535493570475</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.145694400807677</v>
+        <v>-1.14600393100295</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.3205307016535354</v>
+        <v>-0.3241633013037163</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.1452197549384231</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.8369307307827604</v>
+        <v>-0.845603416442758</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.102374773950416</v>
+        <v>-1.099315973199963</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.3548929334730717</v>
+        <v>-0.3583868285546162</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.1600411439789255</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.9706857363909063</v>
+        <v>-0.982523806311994</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.096953615388872</v>
+        <v>-1.096654305530236</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.3977176040275147</v>
+        <v>-0.4009997921358774</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.174363920336712</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.093761950262146</v>
+        <v>-1.107254254670233</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.096422157883782</v>
+        <v>-1.096166649467873</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.4408474246329577</v>
+        <v>-0.445448036167411</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.1877950064768959</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.151909825530676</v>
+        <v>-1.166273778649036</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.135332439506499</v>
+        <v>-1.134469551084771</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.5010583478539415</v>
+        <v>-0.5067058138695764</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.2000906172785673</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.247519614715741</v>
+        <v>-1.259693495697738</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.165121800705309</v>
+        <v>-1.16693956057849</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.5280867581128433</v>
+        <v>-0.532522384213024</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.2113935880542575</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.382430978411887</v>
+        <v>-1.398612691403428</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.126564850720592</v>
+        <v>-1.128341729247228</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.5530141591689276</v>
+        <v>-0.5583360344602898</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.2216850842784567</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.441795073740143</v>
+        <v>-1.458172433175866</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.207363912071479</v>
+        <v>-1.213237685541205</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6076710594520947</v>
+        <v>-0.6126483633940024</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.231384269616101</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.540565867042026</v>
+        <v>-1.556138739979658</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.299275399442273</v>
+        <v>-1.305410521520271</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6508461415483558</v>
+        <v>-0.6556643002483545</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.2409896332672185</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.561368632241293</v>
+        <v>-1.574863856745562</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.37051406589389</v>
+        <v>-1.377843507310252</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6747179278347131</v>
+        <v>-0.6803332727923479</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.2508648710678611</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.625502704682549</v>
+        <v>-1.635061639533728</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.45270017293114</v>
+        <v>-1.460372725648866</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6673344646389877</v>
+        <v>-0.6718065919414411</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.2612022226872417</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.68032751049617</v>
+        <v>-1.68979154222144</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.526257395751121</v>
+        <v>-1.533275846924119</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.6932999598877081</v>
+        <v>-0.6980859975297068</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.2716939227885152</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.71634981699507</v>
+        <v>-1.728082763453612</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.638919086589909</v>
+        <v>-1.648184551774815</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7369758384791508</v>
+        <v>-0.7452922724049669</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.2823950327094159</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.69538206636153</v>
+        <v>-1.706898925702618</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.733248413599247</v>
+        <v>-1.740954547423063</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7586852935428723</v>
+        <v>-0.7657577664952341</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.2932157305579596</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.685650845835623</v>
+        <v>-1.698141557253347</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.785080120826506</v>
+        <v>-1.795134011980503</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7772425047783219</v>
+        <v>-0.7827717068985931</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.3037901380994605</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.636485186422364</v>
+        <v>-1.648096948889361</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.854939041832214</v>
+        <v>-1.863237225156894</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.7766584855419584</v>
+        <v>-0.7831308787289567</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3137339176685022</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.547298148789206</v>
+        <v>-1.555507999204386</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.955644398854551</v>
+        <v>-1.96133931643314</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.7787054729654124</v>
+        <v>-0.7844376217703199</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3223141234864226</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.429605132229147</v>
+        <v>-1.437687958460417</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.007373902715446</v>
+        <v>-2.013579837125854</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7645371662912344</v>
+        <v>-0.7670601293923246</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3286137142288605</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.291329817731548</v>
+        <v>-1.295663240465365</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.059721006918796</v>
+        <v>-2.066992046411521</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7513251911166016</v>
+        <v>-0.7538510743138737</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3317500618853366</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.104264076180052</v>
+        <v>-1.104573606375325</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.083643894888335</v>
+        <v>-2.088075870868288</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.7241463959043362</v>
+        <v>-0.7267117004000627</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3305509374952784</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.9386639616610967</v>
+        <v>-0.9347189117194614</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.081745102346108</v>
+        <v>-2.089340272515015</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.66904126085726</v>
+        <v>-0.6715350229965321</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3241290090166479</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6985488327745248</v>
+        <v>-0.6970055619424343</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.114774310258645</v>
+        <v>-2.12039111526437</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.6129578935892751</v>
+        <v>-0.6184184734492736</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.311905789658768</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4409934294420486</v>
+        <v>-0.4370936409912314</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.115463452957553</v>
+        <v>-2.120148017257234</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5183015158075732</v>
+        <v>-0.5209967645833907</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2936914846779617</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1554445240625797</v>
+        <v>-0.1530471250973077</v>
       </c>
       <c r="F82" t="n">
-        <v>-2.102411353048875</v>
+        <v>-2.106994444006237</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4501391706835006</v>
+        <v>-0.453571743745227</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2700210590969601</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1421234972012494</v>
+        <v>0.1430272669695219</v>
       </c>
       <c r="F83" t="n">
-        <v>-2.042870591901619</v>
+        <v>-2.052298852448661</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.336337182285713</v>
+        <v>-0.3391871961591668</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2416376773382141</v>
       </c>
       <c r="E84" t="n">
-        <v>0.482703075175158</v>
+        <v>0.4829060218597943</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.985909005706952</v>
+        <v>-1.996102331453631</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2555381209348256</v>
+        <v>-0.2581107256710067</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2095611793957192</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7859068820698948</v>
+        <v>0.7861127488507129</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.91325774272738</v>
+        <v>-1.921934808531651</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1822247261460271</v>
+        <v>-0.185777023151208</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1744920097305684</v>
       </c>
       <c r="E86" t="n">
-        <v>1.103197232945719</v>
+        <v>1.104963891135718</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.865947804437666</v>
+        <v>-1.87630246549839</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1057021456534113</v>
+        <v>-0.108712764816865</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1378118982229025</v>
       </c>
       <c r="E87" t="n">
-        <v>1.351792321144288</v>
+        <v>1.357410586198105</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.697316630081984</v>
+        <v>-1.711007501030435</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.05900250746569656</v>
+        <v>-0.06117651907305961</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.100488017588889</v>
       </c>
       <c r="E88" t="n">
-        <v>1.575073095542683</v>
+        <v>1.579313075198682</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.518584843033395</v>
+        <v>-1.533451052695028</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01060674531646657</v>
+        <v>0.008629840201376188</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.06346024458119422</v>
       </c>
       <c r="E89" t="n">
-        <v>1.758520837924906</v>
+        <v>1.760610166742997</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.292081742498365</v>
+        <v>-1.313087454382269</v>
       </c>
       <c r="G89" t="n">
-        <v>0.06544615161099729</v>
+        <v>0.06404304539563403</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.02715408524200172</v>
       </c>
       <c r="E90" t="n">
-        <v>1.939179888453494</v>
+        <v>1.940400488657494</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.065546520905335</v>
+        <v>-1.087413661162875</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09796580273980675</v>
+        <v>0.09631594839707991</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.007658858772723093</v>
       </c>
       <c r="E91" t="n">
-        <v>2.12203777140699</v>
+        <v>2.123645284355081</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8420160782833954</v>
+        <v>-0.8643518939781166</v>
       </c>
       <c r="G91" t="n">
-        <v>0.08075621589226591</v>
+        <v>0.08045398593744781</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.04012243483728301</v>
       </c>
       <c r="E92" t="n">
-        <v>2.240806843410049</v>
+        <v>2.242764767899958</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6424669255546308</v>
+        <v>-0.6644187486014431</v>
       </c>
       <c r="G92" t="n">
-        <v>0.09386890779671693</v>
+        <v>0.09468215458335308</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.06910735635574505</v>
       </c>
       <c r="E93" t="n">
-        <v>2.344696565318658</v>
+        <v>2.34735093274793</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.3932483968212432</v>
+        <v>-0.4137737528832376</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0460435725309116</v>
+        <v>0.04796207572236563</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.09338767259806914</v>
       </c>
       <c r="E94" t="n">
-        <v>2.366032248071107</v>
+        <v>2.368096756071652</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2517989377740084</v>
+        <v>-0.2726805455701846</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01011032896555761</v>
+        <v>0.01141415191073908</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1113017928980718</v>
       </c>
       <c r="E95" t="n">
-        <v>2.3231374952083</v>
+        <v>2.327863670878572</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.08389194727141715</v>
+        <v>-0.1019454419155032</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.02725668182506872</v>
+        <v>-0.02719973994952328</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1215980898960515</v>
       </c>
       <c r="E96" t="n">
-        <v>2.225229590328145</v>
+        <v>2.229957226046507</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03576775406709617</v>
+        <v>0.01842968298755537</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.06715103586105801</v>
+        <v>-0.06574792964569474</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.1243582836147188</v>
       </c>
       <c r="E97" t="n">
-        <v>2.074743893646276</v>
+        <v>2.077182173958093</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1129415160082573</v>
+        <v>0.0989162940469883</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1218035559999524</v>
+        <v>-0.1184717262564988</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.1202893557416975</v>
       </c>
       <c r="E98" t="n">
-        <v>1.882132889445509</v>
+        <v>1.883858666288964</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1824763063377841</v>
+        <v>0.169300832365424</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1393971354954023</v>
+        <v>-0.1382962592348571</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.1117667785534109</v>
       </c>
       <c r="E99" t="n">
-        <v>1.683602850284199</v>
+        <v>1.682896187008199</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1947786715517807</v>
+        <v>0.1846707586184198</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1352257780996761</v>
+        <v>-0.1360463251267668</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.1007462747738427</v>
       </c>
       <c r="E100" t="n">
-        <v>1.521826601715333</v>
+        <v>1.51671205325288</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2209923749759555</v>
+        <v>0.2129840111973213</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1291271572239505</v>
+        <v>-0.129566631699314</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.09009903016227395</v>
       </c>
       <c r="E101" t="n">
-        <v>1.376178044358645</v>
+        <v>1.367917092260284</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2155814367510479</v>
+        <v>0.2104552079038675</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1105889266136827</v>
+        <v>-0.1110123405600462</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.07930682975358676</v>
       </c>
       <c r="E102" t="n">
-        <v>1.19015623719215</v>
+        <v>1.176020051575972</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2304009248737712</v>
+        <v>0.2239883936585002</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.143015134664674</v>
+        <v>-0.1429070911059468</v>
       </c>
     </row>
   </sheetData>
